--- a/biology/Zoologie/Euselasia_venezolana/Euselasia_venezolana.xlsx
+++ b/biology/Zoologie/Euselasia_venezolana/Euselasia_venezolana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia venezolana est une espèce de papillons de la famille des Riodinidae et du genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia venezolana a été décrit par Seitz en 1913[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia venezolana a été décrit par Seitz en 1913
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Euselasia venezolana venezolana - Venezuela
 Euselasia venezolana hypocala Le Cerf, 1958 - Colombie
-Euselasia venezolana psammathe Seitz, 1916 - Guyane[1], peut-être espèce distincte</t>
+Euselasia venezolana psammathe Seitz, 1916 - Guyane, peut-être espèce distincte</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia venezolana est un petit papillon (envergure entre 20 et 30 mm) de couleur noire suffusé de cuivré avec des ailes antérieures rouge cuivré largement bordées de noir. L'autre face ont une partie basale de couleur blanc crème séparée par une fine ligne médiane brun-rouge  et d'une ligne submarginale de petits ocelles noirs cernés de blanc.
 </t>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,13 +651,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Euselasia venezolana est présent en Guyane, Colombie, au Brésil  et au Venezuela[1].
-Euselasia  venezolana psammathe est endémique de la Guyane[2].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia venezolana est présent en Guyane, Colombie, au Brésil  et au Venezuela.
+Euselasia  venezolana psammathe est endémique de la Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_venezolana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_venezolana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
